--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lama3-Sdc2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.731118985667337</v>
+        <v>1.760574</v>
       </c>
       <c r="H2">
-        <v>0.731118985667337</v>
+        <v>5.281722</v>
       </c>
       <c r="I2">
-        <v>0.1463956167896789</v>
+        <v>0.2878920521313718</v>
       </c>
       <c r="J2">
-        <v>0.1463956167896789</v>
+        <v>0.2878920521313718</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N2">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q2">
-        <v>0.189075904029146</v>
+        <v>1.244010438098</v>
       </c>
       <c r="R2">
-        <v>0.189075904029146</v>
+        <v>11.196093942882</v>
       </c>
       <c r="S2">
-        <v>0.0002798138749585503</v>
+        <v>0.001493538945551058</v>
       </c>
       <c r="T2">
-        <v>0.0002798138749585503</v>
+        <v>0.001493538945551058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.731118985667337</v>
+        <v>1.760574</v>
       </c>
       <c r="H3">
-        <v>0.731118985667337</v>
+        <v>5.281722</v>
       </c>
       <c r="I3">
-        <v>0.1463956167896789</v>
+        <v>0.2878920521313718</v>
       </c>
       <c r="J3">
-        <v>0.1463956167896789</v>
+        <v>0.2878920521313718</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N3">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P3">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q3">
-        <v>81.78784401249865</v>
+        <v>197.06458070516</v>
       </c>
       <c r="R3">
-        <v>81.78784401249865</v>
+        <v>1773.58122634644</v>
       </c>
       <c r="S3">
-        <v>0.1210380226668912</v>
+        <v>0.2365925695300798</v>
       </c>
       <c r="T3">
-        <v>0.1210380226668912</v>
+        <v>0.2365925695300798</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.731118985667337</v>
+        <v>1.760574</v>
       </c>
       <c r="H4">
-        <v>0.731118985667337</v>
+        <v>5.281722</v>
       </c>
       <c r="I4">
-        <v>0.1463956167896789</v>
+        <v>0.2878920521313718</v>
       </c>
       <c r="J4">
-        <v>0.1463956167896789</v>
+        <v>0.2878920521313718</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N4">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P4">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q4">
-        <v>16.94556416155183</v>
+        <v>41.48476607967</v>
       </c>
       <c r="R4">
-        <v>16.94556416155183</v>
+        <v>373.36289471703</v>
       </c>
       <c r="S4">
-        <v>0.02507778024782914</v>
+        <v>0.04980594365574097</v>
       </c>
       <c r="T4">
-        <v>0.02507778024782914</v>
+        <v>0.04980594365574098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.129313441906444</v>
+        <v>0.1366213333333333</v>
       </c>
       <c r="H5">
-        <v>0.129313441906444</v>
+        <v>0.409864</v>
       </c>
       <c r="I5">
-        <v>0.02589307822421103</v>
+        <v>0.02234055258015711</v>
       </c>
       <c r="J5">
-        <v>0.02589307822421103</v>
+        <v>0.02234055258015711</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N5">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P5">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q5">
-        <v>0.03344196554992247</v>
+        <v>0.09653576886488888</v>
       </c>
       <c r="R5">
-        <v>0.03344196554992247</v>
+        <v>0.8688219197839999</v>
       </c>
       <c r="S5">
-        <v>4.949084345148335E-05</v>
+        <v>0.0001158992931432852</v>
       </c>
       <c r="T5">
-        <v>4.949084345148335E-05</v>
+        <v>0.0001158992931432852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.129313441906444</v>
+        <v>0.1366213333333333</v>
       </c>
       <c r="H6">
-        <v>0.129313441906444</v>
+        <v>0.409864</v>
       </c>
       <c r="I6">
-        <v>0.02589307822421103</v>
+        <v>0.02234055258015711</v>
       </c>
       <c r="J6">
-        <v>0.02589307822421103</v>
+        <v>0.02234055258015711</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N6">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q6">
-        <v>14.46586372765295</v>
+        <v>15.29229999347556</v>
       </c>
       <c r="R6">
-        <v>14.46586372765295</v>
+        <v>137.63069994128</v>
       </c>
       <c r="S6">
-        <v>0.02140806574502985</v>
+        <v>0.01835968968413646</v>
       </c>
       <c r="T6">
-        <v>0.02140806574502985</v>
+        <v>0.01835968968413646</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.129313441906444</v>
+        <v>0.1366213333333333</v>
       </c>
       <c r="H7">
-        <v>0.129313441906444</v>
+        <v>0.409864</v>
       </c>
       <c r="I7">
-        <v>0.02589307822421103</v>
+        <v>0.02234055258015711</v>
       </c>
       <c r="J7">
-        <v>0.02589307822421103</v>
+        <v>0.02234055258015711</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N7">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P7">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q7">
-        <v>2.997171828025542</v>
+        <v>3.219236484706667</v>
       </c>
       <c r="R7">
-        <v>2.997171828025542</v>
+        <v>28.97312836236</v>
       </c>
       <c r="S7">
-        <v>0.004435521635729696</v>
+        <v>0.003864963602877361</v>
       </c>
       <c r="T7">
-        <v>0.004435521635729696</v>
+        <v>0.003864963602877361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.13369923907105</v>
+        <v>4.218201</v>
       </c>
       <c r="H8">
-        <v>4.13369923907105</v>
+        <v>12.654603</v>
       </c>
       <c r="I8">
-        <v>0.8277113049861101</v>
+        <v>0.6897673952884711</v>
       </c>
       <c r="J8">
-        <v>0.8277113049861101</v>
+        <v>0.6897673952884711</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="N8">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="O8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="P8">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="Q8">
-        <v>1.069022875802566</v>
+        <v>2.980554111326999</v>
       </c>
       <c r="R8">
-        <v>1.069022875802566</v>
+        <v>26.824987001943</v>
       </c>
       <c r="S8">
-        <v>0.00158204946755954</v>
+        <v>0.003578405380099001</v>
       </c>
       <c r="T8">
-        <v>0.00158204946755954</v>
+        <v>0.003578405380099001</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.13369923907105</v>
+        <v>4.218201</v>
       </c>
       <c r="H9">
-        <v>4.13369923907105</v>
+        <v>12.654603</v>
       </c>
       <c r="I9">
-        <v>0.8277113049861101</v>
+        <v>0.6897673952884711</v>
       </c>
       <c r="J9">
-        <v>0.8277113049861101</v>
+        <v>0.6897673952884711</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="N9">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="P9">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="Q9">
-        <v>462.4231557208644</v>
+        <v>472.15170245334</v>
       </c>
       <c r="R9">
-        <v>462.4231557208644</v>
+        <v>4249.36532208006</v>
       </c>
       <c r="S9">
-        <v>0.6843411154753511</v>
+        <v>0.566857748316374</v>
       </c>
       <c r="T9">
-        <v>0.6843411154753511</v>
+        <v>0.566857748316374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.13369923907105</v>
+        <v>4.218201</v>
       </c>
       <c r="H10">
-        <v>4.13369923907105</v>
+        <v>12.654603</v>
       </c>
       <c r="I10">
-        <v>0.8277113049861101</v>
+        <v>0.6897673952884711</v>
       </c>
       <c r="J10">
-        <v>0.8277113049861101</v>
+        <v>0.6897673952884711</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="N10">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="P10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="Q10">
-        <v>95.80911869810014</v>
+        <v>99.39433489420499</v>
       </c>
       <c r="R10">
-        <v>95.80911869810014</v>
+        <v>894.549014047845</v>
       </c>
       <c r="S10">
-        <v>0.1417881400431995</v>
+        <v>0.119331241591998</v>
       </c>
       <c r="T10">
-        <v>0.1417881400431995</v>
+        <v>0.119331241591998</v>
       </c>
     </row>
   </sheetData>
